--- a/【ToDoリスト】ER図.xlsx
+++ b/【ToDoリスト】ER図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetsu\Downloads\LINE WORKS\中斎さん課題\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38073B1A-60E8-4962-9A7F-C5B9777AB299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841DDD46-F6F8-4E58-9F44-26988BD288A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="570" windowWidth="17205" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="17130" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>構成要素</t>
     <rPh sb="0" eb="2">
@@ -724,10 +724,6 @@
   </si>
   <si>
     <t>タスクマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>件数情報</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1563,6 +1559,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1572,34 +1586,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1608,14 +1640,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1623,47 +1649,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2004,13 +2000,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>42334</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>328082</xdr:rowOff>
+      <xdr:rowOff>328081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>613832</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>275166</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2025,8 +2021,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079501" y="1703915"/>
-          <a:ext cx="1693331" cy="1640418"/>
+          <a:off x="1079501" y="1703914"/>
+          <a:ext cx="1693331" cy="2074336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2103,7 +2099,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> 　進行中タスク数</a:t>
+            <a:t> 　パスワード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　進行中タスク数</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2124,7 +2136,26 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録日</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2135,13 +2166,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>52917</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>328085</xdr:rowOff>
+      <xdr:rowOff>328084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1693333</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2156,8 +2187,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381500" y="1703918"/>
-          <a:ext cx="1640416" cy="2444750"/>
+          <a:off x="4381500" y="1703917"/>
+          <a:ext cx="1640416" cy="2804583"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2267,73 +2298,6 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>□ユーザー</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>　タスク名称 </a:t>
           </a:r>
         </a:p>
@@ -2370,7 +2334,84 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>　公開範囲 </a:t>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>公開範囲 </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
@@ -2470,6 +2511,56 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>　削除フラグ　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>　完了日</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
@@ -2520,7 +2611,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>　終了期限</a:t>
+            <a:t>　完了期限</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
@@ -2555,94 +2646,6 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1195914</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>444497</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E31487-3489-4050-B890-5270E0A40E7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7863414" y="1714501"/>
-          <a:ext cx="1640416" cy="793749"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF">
-            <a:lumMod val="95000"/>
-          </a:sysClr>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="4472C4">
-              <a:shade val="50000"/>
-            </a:srgbClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
               <a:ln>
@@ -2658,44 +2661,22 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>　ユーザー件数</a:t>
+            <a:t>　登録日</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　タスク件数</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2853,15 +2834,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>52917</xdr:colOff>
+      <xdr:colOff>42333</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1693333</xdr:colOff>
+      <xdr:colOff>1682749</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2876,7 +2857,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381500" y="2338917"/>
+          <a:off x="4370916" y="2063750"/>
           <a:ext cx="1640416" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5506,9 +5487,7 @@
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5612,7 +5591,7 @@
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
       <c r="J9" s="77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="96.75" x14ac:dyDescent="0.4">
@@ -5918,14 +5897,14 @@
       <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="123" t="s">
+      <c r="F4" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123" t="s">
+      <c r="G4" s="119"/>
+      <c r="H4" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="123"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
@@ -5943,14 +5922,14 @@
       <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124" t="s">
+      <c r="G5" s="120"/>
+      <c r="H5" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="124"/>
+      <c r="I5" s="120"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="38" t="s">
@@ -5966,13 +5945,13 @@
         <v>15</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="116" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="40">
@@ -5985,13 +5964,13 @@
         <v>23</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="121"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="40">
         <v>43494</v>
       </c>
@@ -6002,13 +5981,13 @@
         <v>25</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="122"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="40">
         <v>43495</v>
       </c>
@@ -6019,10 +5998,10 @@
         <v>27</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="41"/>
@@ -6030,10 +6009,10 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="41"/>
@@ -6041,10 +6020,10 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="118"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="124"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="41"/>
@@ -6052,10 +6031,10 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="118"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="124"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="41"/>
@@ -6063,10 +6042,10 @@
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="118"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="124"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="41"/>
@@ -6074,10 +6053,10 @@
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="118"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="124"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="41"/>
@@ -6085,10 +6064,10 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="118"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="124"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="41"/>
@@ -6096,10 +6075,10 @@
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="118"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="124"/>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="41"/>
@@ -6158,6 +6137,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
@@ -6171,20 +6164,6 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -6284,10 +6263,10 @@
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="51"/>
@@ -6295,10 +6274,10 @@
       <c r="C5" s="54"/>
       <c r="D5" s="53"/>
       <c r="E5" s="56"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="57"/>
@@ -6306,10 +6285,10 @@
       <c r="C6" s="13"/>
       <c r="D6" s="53"/>
       <c r="E6" s="56"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="57"/>
@@ -6317,10 +6296,10 @@
       <c r="C7" s="13"/>
       <c r="D7" s="53"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="57"/>
@@ -6328,10 +6307,10 @@
       <c r="C8" s="13"/>
       <c r="D8" s="53"/>
       <c r="E8" s="56"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="57"/>
@@ -6339,10 +6318,10 @@
       <c r="C9" s="13"/>
       <c r="D9" s="53"/>
       <c r="E9" s="56"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="57"/>
@@ -6350,10 +6329,10 @@
       <c r="C10" s="13"/>
       <c r="D10" s="53"/>
       <c r="E10" s="56"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="57"/>
@@ -6361,10 +6340,10 @@
       <c r="C11" s="13"/>
       <c r="D11" s="53"/>
       <c r="E11" s="56"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="57"/>
@@ -6372,10 +6351,10 @@
       <c r="C12" s="13"/>
       <c r="D12" s="53"/>
       <c r="E12" s="56"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="57"/>
@@ -6383,10 +6362,10 @@
       <c r="C13" s="13"/>
       <c r="D13" s="53"/>
       <c r="E13" s="56"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="57"/>
@@ -6394,10 +6373,10 @@
       <c r="C14" s="13"/>
       <c r="D14" s="53"/>
       <c r="E14" s="56"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="57"/>
@@ -6405,10 +6384,10 @@
       <c r="C15" s="13"/>
       <c r="D15" s="53"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="57"/>
@@ -6472,18 +6451,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F11:G11"/>
@@ -6496,6 +6463,18 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -6518,7 +6497,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6553,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -6593,10 +6572,10 @@
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="104"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="51"/>
@@ -6605,8 +6584,8 @@
       <c r="D5" s="109"/>
       <c r="F5" s="109"/>
       <c r="G5" s="46"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="57"/>
@@ -6619,11 +6598,9 @@
         <v>65</v>
       </c>
       <c r="F6" s="109"/>
-      <c r="G6" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="57"/>
@@ -6633,8 +6610,8 @@
       <c r="E7" s="112"/>
       <c r="F7" s="109"/>
       <c r="G7" s="46"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="57"/>
@@ -6644,8 +6621,8 @@
       <c r="E8" s="112"/>
       <c r="F8" s="109"/>
       <c r="G8" s="46"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="57"/>
@@ -6655,8 +6632,8 @@
       <c r="E9" s="112"/>
       <c r="F9" s="109"/>
       <c r="G9" s="46"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="57"/>
@@ -6666,8 +6643,8 @@
       <c r="E10" s="112"/>
       <c r="F10" s="109"/>
       <c r="G10" s="46"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="57"/>
@@ -6677,8 +6654,8 @@
       <c r="E11" s="112"/>
       <c r="F11" s="109"/>
       <c r="G11" s="46"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="57"/>
@@ -6688,8 +6665,8 @@
       <c r="E12" s="112"/>
       <c r="F12" s="109"/>
       <c r="G12" s="46"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="57"/>
@@ -6699,8 +6676,8 @@
       <c r="E13" s="112"/>
       <c r="F13" s="109"/>
       <c r="G13" s="46"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="57"/>
@@ -6708,10 +6685,10 @@
       <c r="C14" s="104"/>
       <c r="D14" s="53"/>
       <c r="E14" s="103"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="57"/>
@@ -6719,10 +6696,10 @@
       <c r="C15" s="104"/>
       <c r="D15" s="53"/>
       <c r="E15" s="103"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="57"/>
@@ -6787,21 +6764,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -6901,10 +6878,10 @@
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="128"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="127"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="65"/>
@@ -6912,10 +6889,10 @@
       <c r="C5" s="54"/>
       <c r="D5" s="53"/>
       <c r="E5" s="55"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="127"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="128"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="66"/>
@@ -6923,10 +6900,10 @@
       <c r="C6" s="12"/>
       <c r="D6" s="53"/>
       <c r="E6" s="55"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="127"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="128"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="66"/>
@@ -6934,10 +6911,10 @@
       <c r="C7" s="12"/>
       <c r="D7" s="53"/>
       <c r="E7" s="55"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="127"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="128"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="66"/>
@@ -6945,10 +6922,10 @@
       <c r="C8" s="12"/>
       <c r="D8" s="53"/>
       <c r="E8" s="55"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="127"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="128"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="66"/>
@@ -6956,10 +6933,10 @@
       <c r="C9" s="12"/>
       <c r="D9" s="53"/>
       <c r="E9" s="55"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="127"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="128"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="66"/>
@@ -6967,10 +6944,10 @@
       <c r="C10" s="12"/>
       <c r="D10" s="53"/>
       <c r="E10" s="55"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="127"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="128"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="66"/>
@@ -6978,10 +6955,10 @@
       <c r="C11" s="12"/>
       <c r="D11" s="53"/>
       <c r="E11" s="55"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="127"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="128"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="66"/>
@@ -6989,10 +6966,10 @@
       <c r="C12" s="12"/>
       <c r="D12" s="53"/>
       <c r="E12" s="55"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="127"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="128"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="66"/>
@@ -7000,10 +6977,10 @@
       <c r="C13" s="12"/>
       <c r="D13" s="53"/>
       <c r="E13" s="55"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="127"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="128"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="66"/>
@@ -7011,10 +6988,10 @@
       <c r="C14" s="12"/>
       <c r="D14" s="53"/>
       <c r="E14" s="55"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="127"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="128"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="66"/>
@@ -7022,10 +6999,10 @@
       <c r="C15" s="12"/>
       <c r="D15" s="53"/>
       <c r="E15" s="55"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="127"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="128"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="66"/>
@@ -7095,30 +7072,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7226,42 +7203,42 @@
       <c r="I4" s="74"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="145"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="85" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="138" t="s">
+      <c r="E5" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="139"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="136" t="s">
+      <c r="F5" s="130"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="137"/>
+      <c r="I5" s="131"/>
     </row>
     <row r="6" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="137"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="86" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="93"/>
-      <c r="E6" s="131" t="s">
+      <c r="E6" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="132"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="130"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142"/>
     </row>
     <row r="7" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="88"/>
@@ -7272,13 +7249,13 @@
         <v>39</v>
       </c>
       <c r="D7" s="94"/>
-      <c r="E7" s="131" t="s">
+      <c r="E7" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="132"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="130"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="142"/>
     </row>
     <row r="8" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="89"/>
@@ -7289,30 +7266,30 @@
         <v>39</v>
       </c>
       <c r="D8" s="95"/>
-      <c r="E8" s="131" t="s">
+      <c r="E8" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="132"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="142"/>
     </row>
     <row r="9" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="137"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="86" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="86"/>
-      <c r="E9" s="131" t="s">
+      <c r="E9" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="132"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
     </row>
     <row r="10" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="97"/>
@@ -7323,83 +7300,101 @@
       <c r="D10" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="131" t="s">
+      <c r="E10" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="132"/>
-      <c r="G10" s="133"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="91"/>
       <c r="I10" s="92"/>
     </row>
     <row r="11" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="88"/>
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="144"/>
+      <c r="C11" s="136"/>
       <c r="D11" s="86"/>
-      <c r="E11" s="131" t="s">
+      <c r="E11" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="132"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="142"/>
     </row>
     <row r="12" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="88"/>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="86"/>
-      <c r="E12" s="131" t="s">
+      <c r="E12" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="132"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="142"/>
     </row>
     <row r="13" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="88"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="86"/>
-      <c r="E13" s="131" t="s">
+      <c r="E13" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="132"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="142"/>
     </row>
     <row r="14" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="88"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
       <c r="D14" s="86"/>
-      <c r="E14" s="131" t="s">
+      <c r="E14" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="132"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="142"/>
     </row>
     <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="89"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="131" t="s">
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="130"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B11:B15"/>
@@ -7408,24 +7403,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7525,23 +7502,23 @@
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="99"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="128"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="127"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="65"/>
-      <c r="B5" s="146" t="s">
+      <c r="B5" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="127"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="128"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="66"/>
@@ -7601,10 +7578,10 @@
       <c r="C10" s="99"/>
       <c r="D10" s="53"/>
       <c r="E10" s="100"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="127"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="128"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="66"/>
@@ -7612,10 +7589,10 @@
       <c r="C11" s="99"/>
       <c r="D11" s="53"/>
       <c r="E11" s="100"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="127"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="128"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="66"/>
@@ -7623,10 +7600,10 @@
       <c r="C12" s="99"/>
       <c r="D12" s="53"/>
       <c r="E12" s="100"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="127"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="128"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="66"/>
@@ -7634,10 +7611,10 @@
       <c r="C13" s="99"/>
       <c r="D13" s="53"/>
       <c r="E13" s="100"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="127"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="128"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="66"/>
@@ -7645,10 +7622,10 @@
       <c r="C14" s="99"/>
       <c r="D14" s="53"/>
       <c r="E14" s="100"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="127"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="128"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="66"/>
@@ -7656,10 +7633,10 @@
       <c r="C15" s="99"/>
       <c r="D15" s="53"/>
       <c r="E15" s="100"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="127"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="128"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="66"/>
@@ -7667,10 +7644,10 @@
       <c r="C16" s="99"/>
       <c r="D16" s="53"/>
       <c r="E16" s="100"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="127"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="128"/>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="66"/>
@@ -7726,17 +7703,29 @@
     </row>
     <row r="21" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="68"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
@@ -7744,18 +7733,6 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/【ToDoリスト】ER図.xlsx
+++ b/【ToDoリスト】ER図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetsu\Downloads\LINE WORKS\中斎さん課題\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetsu\Downloads\LINE WORKS\課題\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841DDD46-F6F8-4E58-9F44-26988BD288A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBB80AD-55A8-43BB-82AB-A3585856CEFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="17130" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="1065" windowWidth="17130" windowHeight="9570" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="15" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>構成要素</t>
     <rPh sb="0" eb="2">
@@ -715,14 +715,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タスクマスタ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -738,6 +730,24 @@
   </si>
   <si>
     <t>（ToDoリスト）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーファイル(TXT)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク管理</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -749,7 +759,7 @@
     <numFmt numFmtId="176" formatCode="0.0.0"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,6 +860,15 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1210,7 +1229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1659,6 +1678,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1998,15 +2023,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>328081</xdr:rowOff>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>285747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>613832</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2021,8 +2046,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079501" y="1703914"/>
-          <a:ext cx="1693331" cy="2074336"/>
+          <a:off x="1068918" y="2000247"/>
+          <a:ext cx="1693331" cy="1460503"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2088,18 +2113,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　ユーザー氏名</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 　パスワード</a:t>
+            <a:t>　パスワード</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:solidFill>
@@ -2115,7 +2129,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　進行中タスク数</a:t>
+            <a:t>　 権限フラグ</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2148,14 +2162,11 @@
             </a:rPr>
             <a:t>  </a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>登録日</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2171,8 +2182,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1693333</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2188,7 +2199,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4381500" y="1703917"/>
-          <a:ext cx="1640416" cy="2804583"/>
+          <a:ext cx="1640416" cy="3153833"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2661,7 +2672,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>　登録日</a:t>
+            <a:t>　登録日時</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
@@ -2774,61 +2785,6 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>52917</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC36D78-5A7A-4DC6-8A19-8C0104C6308B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1090084" y="2053168"/>
-          <a:ext cx="1640416" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2979,6 +2935,128 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>910167</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13062121-2A87-41DD-AA98-B40B5D8CA512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="805656"/>
+          <a:ext cx="2239698" cy="2980531"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>740834</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1905001</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形: 角を丸くする 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C389B7-EDF3-4A14-802D-83E9EAE74927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3979334" y="795072"/>
+          <a:ext cx="2235730" cy="4372240"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5487,7 +5565,9 @@
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5591,7 +5671,7 @@
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
       <c r="J9" s="77" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="96.75" x14ac:dyDescent="0.4">
@@ -6495,7 +6575,7 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
@@ -6532,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -6579,9 +6659,14 @@
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="51"/>
-      <c r="B5" s="110"/>
+      <c r="B5" s="150" t="s">
+        <v>67</v>
+      </c>
       <c r="C5" s="111"/>
       <c r="D5" s="109"/>
+      <c r="E5" s="151" t="s">
+        <v>68</v>
+      </c>
       <c r="F5" s="109"/>
       <c r="G5" s="46"/>
       <c r="H5" s="126"/>
@@ -6590,12 +6675,12 @@
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="57"/>
       <c r="B6" s="110" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C6" s="113"/>
       <c r="D6" s="109"/>
       <c r="E6" s="115" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" s="109"/>
       <c r="G6" s="108"/>
@@ -6717,9 +6802,7 @@
       <c r="B17" s="58"/>
       <c r="C17" s="104"/>
       <c r="D17" s="53"/>
-      <c r="E17" s="103" t="s">
-        <v>64</v>
-      </c>
+      <c r="E17" s="103"/>
       <c r="F17" s="103"/>
       <c r="G17" s="103"/>
       <c r="H17" s="103"/>
@@ -7119,7 +7202,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13:G13"/>
     </sheetView>
   </sheetViews>
@@ -7427,7 +7510,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.4"/>
